--- a/biology/Zoologie/Euryoryzomys_macconnelli/Euryoryzomys_macconnelli.xlsx
+++ b/biology/Zoologie/Euryoryzomys_macconnelli/Euryoryzomys_macconnelli.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Euryoryzomys macconnelli, la Souris terrestre de McConnell[2] ou l'Oryzomys de McConnell[1], est une espèce américaine de rongeurs de la famille des Cricetidae.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Euryoryzomys macconnelli, la Souris terrestre de McConnell ou l'Oryzomys de McConnell, est une espèce américaine de rongeurs de la famille des Cricetidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Euryoryzomys macconnelli a une longueur du corps (sans la queue) de 130 à 166 mm[3], la longueur de la queue est de 124 à 175 mm, la longueur du pied arrière est de 35 mm.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Euryoryzomys macconnelli a une longueur du corps (sans la queue) de 130 à 166 mm, la longueur de la queue est de 124 à 175 mm, la longueur du pied arrière est de 35 mm.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">On trouve Euryoryzomys macconnelli au Brésil, en Colombie, en Équateur, en Guyane[2], au Guyana, au Pérou, au Suriname et au Venezuela[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On trouve Euryoryzomys macconnelli au Brésil, en Colombie, en Équateur, en Guyane, au Guyana, au Pérou, au Suriname et au Venezuela.
 Son habitat naturel est les forêts décidues humides tropicales et subtropicales. La déforestation constitue une menace pour la survie de cette espèce, tout comme l'activité des chercheurs d'or en Guyane française et au Suriname.
 </t>
         </is>
@@ -574,10 +590,12 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce est nommée en l'honneur de l'explorateur britannique Frederick Vavasour McConnell[4].
-Elle était auparavant placée dans le genre Oryzomys, sous le nom d’Oryzomys macconnelli[1], mais en 2006, elle est reclassée comme espèce type du nouveau genre Euryoryzomys[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce est nommée en l'honneur de l'explorateur britannique Frederick Vavasour McConnell.
+Elle était auparavant placée dans le genre Oryzomys, sous le nom d’Oryzomys macconnelli, mais en 2006, elle est reclassée comme espèce type du nouveau genre Euryoryzomys.
 </t>
         </is>
       </c>
